--- a/xls/stats-blocks_world-tfddownward.xlsx
+++ b/xls/stats-blocks_world-tfddownward.xlsx
@@ -14,18 +14,18 @@
     <sheet name="Memory_usage" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Makespan!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Memory_usage'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number_of_actions'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning_results'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Processing_time'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Makespan!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Memory_usage'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number_of_actions'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning_results'!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Processing_time'!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="23">
   <si>
     <t>Tool</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Object</t>
+  </si>
+  <si>
+    <t>$0.25$</t>
+  </si>
+  <si>
+    <t>$0.50$</t>
+  </si>
+  <si>
+    <t>$0.75$</t>
+  </si>
+  <si>
+    <t>$1.00$</t>
   </si>
   <si>
     <t>Action</t>
@@ -468,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -478,7 +490,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -509,8 +521,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>38</v>
@@ -529,8 +541,8 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>33</v>
@@ -549,8 +561,8 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>39</v>
@@ -567,19 +579,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -587,19 +599,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -607,19 +619,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -627,19 +639,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -647,19 +659,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -667,19 +679,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -687,19 +699,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>28</v>
       </c>
       <c r="E11" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -707,19 +719,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -727,19 +739,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -747,19 +759,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -767,19 +779,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>31</v>
       </c>
       <c r="D15" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -787,19 +799,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>36</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -807,19 +819,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -827,16 +839,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2">
         <v>45</v>
@@ -847,19 +859,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -867,19 +879,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -887,16 +899,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
         <v>49</v>
@@ -907,19 +919,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -927,19 +939,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -947,19 +959,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -967,19 +979,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -987,19 +999,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -1010,30 +1022,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2">
+        <v>53</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>49</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>52</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>60</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1043,7 +1215,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1074,8 +1246,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>51.2</v>
@@ -1087,15 +1259,15 @@
         <v>-1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>44</v>
@@ -1107,15 +1279,15 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>39.9</v>
@@ -1127,18 +1299,18 @@
         <v>-1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>50.3</v>
+        <v>39.8</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -1147,18 +1319,18 @@
         <v>-1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>45.8</v>
+        <v>50.3</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -1167,18 +1339,18 @@
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>40.1</v>
+        <v>45.8</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -1187,18 +1359,18 @@
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>50</v>
+        <v>40.1</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
@@ -1207,18 +1379,18 @@
         <v>-1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>41.4</v>
+        <v>40.1</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -1227,18 +1399,18 @@
         <v>-1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>-1</v>
@@ -1247,18 +1419,18 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>50.2</v>
+        <v>41.4</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
@@ -1267,18 +1439,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>45.4</v>
+        <v>37.5</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -1287,18 +1459,18 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>41.5</v>
+        <v>37.3</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -1307,18 +1479,18 @@
         <v>-1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>44.6</v>
+        <v>50.2</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1327,18 +1499,18 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>42.9</v>
+        <v>45.4</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -1347,18 +1519,18 @@
         <v>-1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>40</v>
+        <v>41.5</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1367,18 +1539,18 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>45.2</v>
+        <v>41.8</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
@@ -1387,18 +1559,18 @@
         <v>-1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>43.6</v>
+        <v>44.6</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -1407,18 +1579,18 @@
         <v>-1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>39.2</v>
+        <v>42.9</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
@@ -1427,18 +1599,18 @@
         <v>-1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>49.9</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
@@ -1447,18 +1619,18 @@
         <v>-1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>51.3</v>
+        <v>39.4</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -1467,18 +1639,18 @@
         <v>-1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>45.8</v>
+        <v>45.2</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -1487,18 +1659,18 @@
         <v>-1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>50.2</v>
+        <v>43.6</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -1507,18 +1679,18 @@
         <v>-1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>45</v>
+        <v>39.2</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -1527,18 +1699,18 @@
         <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>40.3</v>
+        <v>38.7</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -1547,18 +1719,18 @@
         <v>-1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>49.5</v>
+        <v>49.9</v>
       </c>
       <c r="D26" s="2">
         <v>-1</v>
@@ -1567,7 +1739,7 @@
         <v>-1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1575,30 +1747,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>50.2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>40.3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>49.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
         <v>34.6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1608,7 +1940,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -1639,8 +1971,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>77.2</v>
@@ -1652,15 +1984,15 @@
         <v>-1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>68.90000000000001</v>
@@ -1672,15 +2004,15 @@
         <v>-1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>65.90000000000001</v>
@@ -1692,18 +2024,18 @@
         <v>-1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>78.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -1712,18 +2044,18 @@
         <v>-1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>74</v>
+        <v>78.7</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
@@ -1732,18 +2064,18 @@
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>68.8</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -1752,18 +2084,18 @@
         <v>-1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>75.2</v>
+        <v>68.8</v>
       </c>
       <c r="D8" s="2">
         <v>-1</v>
@@ -1772,18 +2104,18 @@
         <v>-1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>65.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D9" s="2">
         <v>-1</v>
@@ -1792,18 +2124,18 @@
         <v>-1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>62.8</v>
+        <v>75.2</v>
       </c>
       <c r="D10" s="2">
         <v>-1</v>
@@ -1812,18 +2144,18 @@
         <v>-1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>74.8</v>
+        <v>65.2</v>
       </c>
       <c r="D11" s="2">
         <v>-1</v>
@@ -1832,18 +2164,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>70.2</v>
+        <v>62.8</v>
       </c>
       <c r="D12" s="2">
         <v>-1</v>
@@ -1852,18 +2184,18 @@
         <v>-1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>68.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="D13" s="2">
         <v>-1</v>
@@ -1872,18 +2204,18 @@
         <v>-1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>74.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="D14" s="2">
         <v>-1</v>
@@ -1892,18 +2224,18 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>71.5</v>
+        <v>70.2</v>
       </c>
       <c r="D15" s="2">
         <v>-1</v>
@@ -1912,18 +2244,18 @@
         <v>-1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>69.09999999999999</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D16" s="2">
         <v>-1</v>
@@ -1932,18 +2264,18 @@
         <v>-1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>69.7</v>
+        <v>68.2</v>
       </c>
       <c r="D17" s="2">
         <v>-1</v>
@@ -1952,18 +2284,18 @@
         <v>-1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>68.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D18" s="2">
         <v>-1</v>
@@ -1972,18 +2304,18 @@
         <v>-1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>64.5</v>
+        <v>71.5</v>
       </c>
       <c r="D19" s="2">
         <v>-1</v>
@@ -1992,18 +2324,18 @@
         <v>-1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>75.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D20" s="2">
         <v>-1</v>
@@ -2012,18 +2344,18 @@
         <v>-1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>75.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D21" s="2">
         <v>-1</v>
@@ -2032,18 +2364,18 @@
         <v>-1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>72.3</v>
+        <v>69.7</v>
       </c>
       <c r="D22" s="2">
         <v>-1</v>
@@ -2052,18 +2384,18 @@
         <v>-1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>76.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D23" s="2">
         <v>-1</v>
@@ -2072,18 +2404,18 @@
         <v>-1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>70.90000000000001</v>
+        <v>64.5</v>
       </c>
       <c r="D24" s="2">
         <v>-1</v>
@@ -2092,18 +2424,18 @@
         <v>-1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>69</v>
+        <v>63.6</v>
       </c>
       <c r="D25" s="2">
         <v>-1</v>
@@ -2112,18 +2444,18 @@
         <v>-1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>75.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="D26" s="2">
         <v>-1</v>
@@ -2132,7 +2464,7 @@
         <v>-1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2140,30 +2472,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
+        <v>75.7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>72.3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
         <v>73.90000000000001</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2173,7 +2665,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2204,8 +2696,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>9</v>
@@ -2217,15 +2709,15 @@
         <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>6.6</v>
@@ -2237,15 +2729,15 @@
         <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>4.8</v>
@@ -2257,138 +2749,138 @@
         <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>9.1</v>
+        <v>4.9</v>
       </c>
       <c r="D5" s="2">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="E5" s="2">
         <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="D6" s="2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E6" s="2">
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="D7" s="2">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="E7" s="2">
         <v>60</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="D8" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E8" s="2">
         <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D9" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E9" s="2">
         <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>4.6</v>
+        <v>7.7</v>
       </c>
       <c r="D10" s="2">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="2">
         <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="D11" s="2">
         <v>3.3</v>
@@ -2397,307 +2889,307 @@
         <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="D12" s="2">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E12" s="2">
         <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D13" s="2">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="E13" s="2">
         <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="E14" s="2">
         <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="D15" s="2">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="E15" s="2">
         <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="D16" s="2">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="E16" s="2">
         <v>60</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="D17" s="2">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="E17" s="2">
         <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="D18" s="2">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="E18" s="2">
         <v>60</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="D19" s="2">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="E19" s="2">
         <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="D20" s="2">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="E20" s="2">
         <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="D21" s="2">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="E21" s="2">
         <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="D22" s="2">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="E22" s="2">
         <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="E23" s="2">
         <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="D24" s="2">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="E24" s="2">
         <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D25" s="2">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="E25" s="2">
         <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>13.2</v>
+        <v>6.4</v>
       </c>
       <c r="D26" s="2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="E26" s="2">
         <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2705,30 +3197,190 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>7.8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.5</v>
       </c>
       <c r="E27" s="2">
         <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>60</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>60</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <v>60</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2738,7 +3390,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -2769,8 +3421,8 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.25</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>4.5</v>
@@ -2782,15 +3434,15 @@
         <v>29.2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>3.6</v>
@@ -2802,15 +3454,15 @@
         <v>27.8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.75</v>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>2.9</v>
@@ -2822,447 +3474,447 @@
         <v>28.2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="E5" s="3">
-        <v>32</v>
+        <v>28.2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C6" s="3">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="E6" s="3">
-        <v>28.4</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.75</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="2">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="E8" s="3">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.5</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E9" s="3">
-        <v>27.5</v>
+        <v>29.8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D10" s="2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="E10" s="3">
-        <v>28.8</v>
+        <v>29.6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.25</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="D11" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E11" s="3">
-        <v>31.1</v>
+        <v>27.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.5</v>
-      </c>
       <c r="C12" s="3">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D12" s="2">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="3">
-        <v>27.4</v>
+        <v>28.8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D13" s="2">
         <v>2.5</v>
       </c>
       <c r="E13" s="3">
-        <v>27.7</v>
+        <v>29.2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="D14" s="2">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="3">
-        <v>30.5</v>
+        <v>31.1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D15" s="2">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E15" s="3">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.75</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="D16" s="2">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="E16" s="3">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.25</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="D17" s="2">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="E17" s="3">
-        <v>30.1</v>
+        <v>27.4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>2.3</v>
+        <v>5.2</v>
       </c>
       <c r="D18" s="2">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="E18" s="3">
-        <v>28</v>
+        <v>30.5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.75</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="D19" s="2">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="E19" s="3">
-        <v>27.1</v>
+        <v>26.3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.25</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="D20" s="2">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="E20" s="3">
-        <v>30.4</v>
+        <v>27.4</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>6.9</v>
+        <v>3.2</v>
       </c>
       <c r="D21" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E21" s="3">
-        <v>29.6</v>
+        <v>27.3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C22" s="3">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="D22" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E22" s="3">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="D23" s="2">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="E23" s="3">
-        <v>26.3</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.5</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="D24" s="2">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="E24" s="3">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.75</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="3">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="E25" s="3">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="D26" s="2">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="E26" s="3">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3270,23 +3922,183 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29.6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>26.3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
         <v>7.9</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3">
         <v>20.2</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>18</v>
+      <c r="F35" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F28"/>
+  <autoFilter ref="A1:F36"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xls/stats-blocks_world-tfddownward.xlsx
+++ b/xls/stats-blocks_world-tfddownward.xlsx
@@ -93,7 +93,7 @@
     <t>NaN</t>
   </si>
   <si>
-    <t xml:space="preserve"> nan</t>
+    <t>nan</t>
   </si>
 </sst>
 </file>
